--- a/medicine/Enfance/Peur_enfantine/Peur_enfantine.xlsx
+++ b/medicine/Enfance/Peur_enfantine/Peur_enfantine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La peur enfantine est la peur (émotion ressentie généralement en présence ou dans la perspective d'un danger) chez l'enfant.
 La peur est une des six émotions fondamentales[réf. nécessaire], l'une des fonctions naturelles sans lesquelles l'espèce humaine aurait disparu depuis longtemps. Chez l'enfant, la peur est un ressort majeur de l'éducation et de l'émancipation tant qu'il peut la maîtriser et qu'elle ne bloque pas son évolution psychique, culturelle et sociale.
